--- a/src/main/resources/vertex.xlsx
+++ b/src/main/resources/vertex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbyto\OneDrive\2019-2020-1\数据结构课设\BJUT-Tour-Guide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8f55eab75a13572/2019-2020-1/数据结构课设/BJUT-Tour-Guide/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{C993092A-A8D6-42DF-BBBA-81197CE1F091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{69836CE5-41C3-4D1F-85A9-A8E1F4D6EBC4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B04E127C-A502-4CC2-9500-D214338B4E0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="11297" xr2:uid="{528109DF-C4F4-4C5E-9FCD-53E11326FFBA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>DormitaryOne</t>
   </si>
@@ -230,6 +230,14 @@
   </si>
   <si>
     <t>ChunhuaBoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuanjianN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06805234-9307-4AFE-BE19-153F90616554}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1332,7 +1340,18 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
